--- a/Género/Violencia contra Mujer/27.12.xlsx
+++ b/Género/Violencia contra Mujer/27.12.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\Género\Violencia contra Mujer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAE4A89-DE95-401A-BD52-566DC9F8ABC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBFBAD8-736C-4357-87AC-9A3CA6B038EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7BEAD8FE-A17E-4A47-9809-A51D08AEE2B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7BEAD8FE-A17E-4A47-9809-A51D08AEE2B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Atenciones CVS" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabla Complementaria" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="35">
   <si>
     <t>Región</t>
   </si>
@@ -73,13 +74,70 @@
   </si>
   <si>
     <t>Atenciones Centros de Atención y Reparación para Mujeres Víctimas/Sobrevivientes de Violencia Sexual (CVS) 2017-2019 Según tipo de Atención</t>
+  </si>
+  <si>
+    <t>Nombre del Centro</t>
+  </si>
+  <si>
+    <t>Ejecutor</t>
+  </si>
+  <si>
+    <t>Cobertura Territorial</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>CVS Valparaíso</t>
+  </si>
+  <si>
+    <t>Fundación León Bloy</t>
+  </si>
+  <si>
+    <t>Regional</t>
+  </si>
+  <si>
+    <t>Calle Prat 846, 6° Piso, Oficina B, Valparaíso</t>
+  </si>
+  <si>
+    <t>cvsvalparaiso@fundacionleonbloy.cl</t>
+  </si>
+  <si>
+    <t>CVS Biobío</t>
+  </si>
+  <si>
+    <t>Lincoyán A-41, Concepción</t>
+  </si>
+  <si>
+    <t>41-2229666</t>
+  </si>
+  <si>
+    <t>cvsbiobio@fundacionleonbloy.cl</t>
+  </si>
+  <si>
+    <t>CVS Santiago</t>
+  </si>
+  <si>
+    <t>Capuchinos 697 (a 2 cuadras de metro Cumming)</t>
+  </si>
+  <si>
+    <t>226714639/226967898</t>
+  </si>
+  <si>
+    <t>cvs.metro@fundacionleonbloy.cl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,16 +145,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -104,11 +182,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -117,6 +206,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -224,6 +322,23 @@
     <tableColumn id="8" xr3:uid="{9F1C4F04-928F-489F-AC93-51888F329CC7}" name="Id_Categoría" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{E630987D-8F1C-44DB-8B0F-EDC4F38BCB5D}" name="Tipo de Atención" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{3C52F573-F42F-403A-80FA-EB4B04CEB46B}" name="Cantidad" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{056363DE-0C61-401E-9D72-CF5C3345056E}" name="CVS_Complementaria" displayName="CVS_Complementaria" ref="A1:H4" totalsRowShown="0">
+  <autoFilter ref="A1:H4" xr:uid="{056363DE-0C61-401E-9D72-CF5C3345056E}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{2329B860-9829-430E-BFF8-B1889B50DEF8}" name="Código_Región"/>
+    <tableColumn id="2" xr3:uid="{C5B4D3F7-8114-4169-992F-33FCD60314A6}" name="Región"/>
+    <tableColumn id="3" xr3:uid="{DAAD330D-F249-4FDE-B071-02962125D38C}" name="Nombre del Centro"/>
+    <tableColumn id="4" xr3:uid="{4DEAD131-A11B-48F9-825C-254059A13513}" name="Ejecutor"/>
+    <tableColumn id="5" xr3:uid="{022D8137-8126-44E3-8559-E7928C1382E6}" name="Cobertura Territorial"/>
+    <tableColumn id="6" xr3:uid="{8ECFE2C4-1A10-40F7-B22E-7F11BD66CA21}" name="Dirección"/>
+    <tableColumn id="7" xr3:uid="{F6518FAD-A803-4654-AF80-85246956F64F}" name="Teléfono"/>
+    <tableColumn id="8" xr3:uid="{C05B41D8-857B-42EB-A040-476B82F1099E}" name="Email"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -528,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E78070-A7F6-4E31-BA21-0A2AD03FD754}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,4 +1397,131 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D0A219-3092-4AD0-895B-495C62D92EF5}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>965497713</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>